--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r103_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -765,10 +777,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -812,28 +824,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -858,28 +870,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1066,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1159,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1355,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1448,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2613,10 +2625,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2660,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2706,28 +2718,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2971,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3018,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3064,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3132,10 +3144,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3179,28 +3191,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3225,28 +3237,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3334,10 +3346,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3381,28 +3393,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3427,28 +3439,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3519,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3566,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3612,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3911,10 +3923,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3958,28 +3970,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4004,28 +4016,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4113,10 +4125,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4160,28 +4172,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4206,28 +4218,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4315,10 +4327,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4362,28 +4374,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4408,28 +4420,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4488,10 +4500,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4535,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4581,28 +4593,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4690,10 +4702,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4737,28 +4749,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4783,28 +4795,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4892,10 +4904,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4939,28 +4951,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4985,28 +4997,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5094,10 +5106,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5141,28 +5153,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5187,28 +5199,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5325,10 +5337,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5372,28 +5384,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5418,28 +5430,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5498,10 +5510,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5545,28 +5557,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5591,28 +5603,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5700,10 +5712,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5747,28 +5759,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5793,28 +5805,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5902,10 +5914,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5949,28 +5961,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5995,28 +6007,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6104,10 +6116,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6151,28 +6163,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6197,28 +6209,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6306,10 +6318,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6353,28 +6365,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6399,28 +6411,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6479,10 +6491,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6526,28 +6538,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6572,28 +6584,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6710,10 +6722,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6757,28 +6769,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6803,28 +6815,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6912,10 +6924,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6959,28 +6971,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7005,28 +7017,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7172,10 +7184,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7219,28 +7231,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7265,28 +7277,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7432,10 +7444,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7479,28 +7491,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7525,28 +7537,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7634,10 +7646,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7681,28 +7693,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7727,28 +7739,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7807,10 +7819,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
@@ -7854,28 +7866,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="s" s="2">
+      <c r="A268" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C268" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D268" t="s" s="2">
+      <c r="C268" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D268" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7900,28 +7912,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C270" t="s" s="2">
+      <c r="C270" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D270" t="s" s="2">
+      <c r="D270" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I270" t="s" s="2">
+      <c r="I270" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7980,10 +7992,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8027,28 +8039,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8073,28 +8085,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8153,10 +8165,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="2" t="s">
+      <c r="J278" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8200,28 +8212,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="2">
+      <c r="A280" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="2">
+      <c r="C280" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8246,28 +8258,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="2">
+      <c r="C282" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="2">
+      <c r="D282" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="2">
+      <c r="I282" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8355,10 +8367,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8402,28 +8414,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8448,28 +8460,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8586,10 +8598,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8633,28 +8645,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8679,28 +8691,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8788,10 +8800,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8835,28 +8847,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8881,28 +8893,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8961,10 +8973,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9008,28 +9020,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9054,28 +9066,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9163,10 +9175,10 @@
       <c r="I313">
         <f>((C313-C312)^2+(D313- D312)^2)^.5</f>
       </c>
-      <c r="J313" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K313" s="2" t="s">
+      <c r="J313" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K313" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L313" t="n">
@@ -9210,28 +9222,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="s" s="2">
+      <c r="A315" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C315" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D315" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9256,28 +9268,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C317" t="s" s="2">
+      <c r="C317" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D317" t="s" s="2">
+      <c r="D317" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I317" t="s" s="2">
+      <c r="I317" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9365,10 +9377,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="2" t="s">
+      <c r="J320" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9412,28 +9424,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="2">
+      <c r="A322" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="2">
+      <c r="C322" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9458,28 +9470,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="2">
+      <c r="C324" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="2">
+      <c r="D324" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="2">
+      <c r="I324" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9538,10 +9550,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9585,28 +9597,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9631,28 +9643,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9711,10 +9723,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9758,28 +9770,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9804,28 +9816,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9884,10 +9896,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9931,28 +9943,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9977,28 +9989,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10057,10 +10069,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10104,28 +10116,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10150,28 +10162,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10271,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
